--- a/uploads/sisi.xlsx
+++ b/uploads/sisi.xlsx
@@ -2248,11 +2248,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="51" max="51" width="8.88671875" customWidth="1"/>
+    <col min="52" max="52" width="12.33203125" customWidth="1"/>
+    <col min="53" max="53" width="15.109375" customWidth="1"/>
+    <col min="54" max="54" width="14" customWidth="1"/>
+    <col min="55" max="55" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
